--- a/ARTIQ_ALTIUM/EEMs/Urukul/Project Outputs for Urukul/BOM/Bill of Materials-Urukul(AD9912).xlsx
+++ b/ARTIQ_ALTIUM/EEMs/Urukul/Project Outputs for Urukul/BOM/Bill of Materials-Urukul(AD9912).xlsx
@@ -864,13 +864,205 @@
     <t>OSC_100MHZ_CRYSTEK_CCHD-950-25-100.000</t>
   </si>
   <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>Resistor - 1%</t>
+  </si>
+  <si>
+    <t>R1, R33, R66, R67, R83, R85, R86, R110, R111, R120, R121, R122, R149</t>
+  </si>
+  <si>
+    <t>RESC1005X40N</t>
+  </si>
+  <si>
+    <t>R0402_10K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>0.4mm</t>
+  </si>
+  <si>
+    <t>YAGEO PHYCOMP</t>
+  </si>
+  <si>
+    <t>232270671003L</t>
+  </si>
+  <si>
+    <t>General Purpose Thick Film Chip Resistor</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Resistor</t>
   </si>
   <si>
-    <t>R1A, R1B, R14A, R14B, R89A, R89B, R89C, R89D, R94A, R94B, R94C, R94D, R104A, R104B, R104C, R104D, R105A, R105B, R105C, R105D, R106A, R106B, R106C, R106D, R107A, R107B, R107C, R107D</t>
-  </si>
-  <si>
-    <t>RESC1005X40N</t>
+    <t>R2A, R2B, R2C, R2D, R6, R45, R46, R48B, R48C, R48D, R49B, R49C, R49D, R50B, R50C, R50D, R51B, R51C, R51D, R57A, R57B, R57C, R57D, R58A, R58B, R58C, R58D, R59A, R59B, R59C, R59D, R64, R65, R73, R74, R75, R79A, R79B, R79C, R79D, R81, R91A, R91B, R91C, R91D, R93A, R93B, R93C, R93D, R96A, R96B, R96C, R96D, R97A, R97B, R97C, R97D, R98A, R98B, R98C, R98D, R99A, R99B, R99C, R99D, R123, R124, R125, R126, R127, R128, R138A, R138B, R138C, R138D</t>
+  </si>
+  <si>
+    <t>R0402_0R_JUMPER</t>
+  </si>
+  <si>
+    <t>232270591001L</t>
+  </si>
+  <si>
+    <t>1A (0.05R Max DC Resistance) Zero Ohm Jumper</t>
+  </si>
+  <si>
+    <t>1k2</t>
+  </si>
+  <si>
+    <t>R5, R53, R115, R116, R130, R143</t>
+  </si>
+  <si>
+    <t>RESC1608X55N</t>
+  </si>
+  <si>
+    <t>R0603_1K2_1%_0.1W_100PPM</t>
+  </si>
+  <si>
+    <t>NIC COMPONENT</t>
+  </si>
+  <si>
+    <t>NRC06F1201TRF</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>R7A, R7B, R9A, R9B, R11A, R11B, R12A, R12B, R12C, R12D, R13A, R13B, R16A, R16B, R18A, R18B, R18C, R18D, R19A, R19B, R19C, R19D, R21A, R21B, R24A, R24B, R35A, R35B</t>
+  </si>
+  <si>
+    <t>R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V</t>
+  </si>
+  <si>
+    <t>PANASONIC, PANASONIC, PANASONIC, PANASONIC, PANASONIC, PANASONIC, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, PANASONIC, PANASONIC, PANASONIC, PANASONIC, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, PANASONIC, PANASONIC, PANASONIC, PANASONIC, PANASONIC, PANASONIC</t>
+  </si>
+  <si>
+    <t>ERJ2RKF1000X, ERJ2RKF1000X, ERJ2RKF1000X, ERJ2RKF1000X, ERJ2RKF1000X, ERJ2RKF1000X, 232270671001L, 232270671001L, 232270671001L, 232270671001L, ERJ2RKF1000X, ERJ2RKF1000X, ERJ2RKF1000X, ERJ2RKF1000X, 232270671001L, 232270671001L, 232270671001L, 232270671001L, 232270671001L, 232270671001L, 232270671001L, 232270671001L, ERJ2RKF1000X, ERJ2RKF1000X, ERJ2RKF1000X, ERJ2RKF1000X, ERJ2RKF1000X, ERJ2RKF1000X</t>
+  </si>
+  <si>
+    <t>R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM</t>
+  </si>
+  <si>
+    <t>Resistor - 0.1%</t>
+  </si>
+  <si>
+    <t>R15A, R15B, R15C, R15D</t>
+  </si>
+  <si>
+    <t>RESC1005X35N</t>
+  </si>
+  <si>
+    <t>R0402_10K_0.1%_0.063W_25PPM</t>
+  </si>
+  <si>
+    <t>0.35mm</t>
+  </si>
+  <si>
+    <t>TE CONNECTIVITY</t>
+  </si>
+  <si>
+    <t>CPF0402B10KE1</t>
+  </si>
+  <si>
+    <t>Thin Film Precision Resistor</t>
+  </si>
+  <si>
+    <t>4k7</t>
+  </si>
+  <si>
+    <t>R20A, R20B, R20C, R20D</t>
+  </si>
+  <si>
+    <t>R0402_4K7_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>232270674702L</t>
+  </si>
+  <si>
+    <t>R23, R118</t>
+  </si>
+  <si>
+    <t>R0603_4K7_1%_0.1W_100PPM</t>
+  </si>
+  <si>
+    <t>NRC06F4701TRF</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>R25, R26, R27, R28, R29, R30, R43, R44, R147, R152, R153, R154, R155</t>
+  </si>
+  <si>
+    <t>R0402_470R_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>232270674701L</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>R40A, R40B, R40C, R40D, R41A, R41B, R41C, R41D</t>
+  </si>
+  <si>
+    <t>R0402_200R_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>232270672001L</t>
+  </si>
+  <si>
+    <t>49R9</t>
+  </si>
+  <si>
+    <t>R47, R52, R117, R142, R144, R145, R146</t>
+  </si>
+  <si>
+    <t>R0402_49R9_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>232270674999L or RC0402FR-0749R9L</t>
+  </si>
+  <si>
+    <t>24k</t>
+  </si>
+  <si>
+    <t>R55, R82, R84</t>
+  </si>
+  <si>
+    <t>R0603_24K_1%_0.1W_100PPM</t>
+  </si>
+  <si>
+    <t>NRC06F2402TRF</t>
+  </si>
+  <si>
+    <t>1k5</t>
+  </si>
+  <si>
+    <t>R80, R119, R129</t>
+  </si>
+  <si>
+    <t>R0603_1K5_1%_0.1W_100PPM</t>
+  </si>
+  <si>
+    <t>NRC06F1501TRF</t>
+  </si>
+  <si>
+    <t>1k8</t>
+  </si>
+  <si>
+    <t>R87</t>
+  </si>
+  <si>
+    <t>R0603_1K8_1%_0.1W_100PPM</t>
+  </si>
+  <si>
+    <t>NRC06F1801TRF</t>
+  </si>
+  <si>
+    <t>R89A, R89B, R89C, R89D, R94A, R94B, R94C, R94D, R104A, R104B, R104C, R104D, R105A, R105B, R105C, R105D, R106A, R106B, R106C, R106D, R107A, R107B, R107C, R107D</t>
   </si>
   <si>
     <t>R0402_NO-VALUE</t>
@@ -879,198 +1071,6 @@
     <t>Reserved Footprint For a 0402 (1005) Chip Resistor</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>R2A, R2B, R2C, R2D, R6, R45, R46, R48B, R48C, R48D, R49B, R49C, R49D, R50B, R50C, R50D, R51B, R51C, R51D, R57A, R57B, R57C, R57D, R58A, R58B, R58C, R58D, R59A, R59B, R59C, R59D, R64, R65, R73, R74, R75, R79A, R79B, R79C, R79D, R81, R91A, R91B, R91C, R91D, R93A, R93B, R93C, R93D, R96A, R96B, R96C, R96D, R97A, R97B, R97C, R97D, R98A, R98B, R98C, R98D, R99A, R99B, R99C, R99D, R123, R124, R125, R126, R127, R128, R138A, R138B, R138C, R138D</t>
-  </si>
-  <si>
-    <t>R0402_0R_JUMPER</t>
-  </si>
-  <si>
-    <t>0.4mm</t>
-  </si>
-  <si>
-    <t>YAGEO PHYCOMP</t>
-  </si>
-  <si>
-    <t>232270591001L</t>
-  </si>
-  <si>
-    <t>1A (0.05R Max DC Resistance) Zero Ohm Jumper</t>
-  </si>
-  <si>
-    <t>1k2</t>
-  </si>
-  <si>
-    <t>Resistor - 1%</t>
-  </si>
-  <si>
-    <t>R5, R53, R115, R116, R130, R143</t>
-  </si>
-  <si>
-    <t>RESC1608X55N</t>
-  </si>
-  <si>
-    <t>R0603_1K2_1%_0.1W_100PPM</t>
-  </si>
-  <si>
-    <t>NIC COMPONENT</t>
-  </si>
-  <si>
-    <t>NRC06F1201TRF</t>
-  </si>
-  <si>
-    <t>General Purpose Thick Film Chip Resistor</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>R7A, R7B, R9A, R9B, R11A, R11B, R12A, R12B, R12C, R12D, R13A, R13B, R16A, R16B, R18A, R18B, R18C, R18D, R19A, R19B, R19C, R19D, R21A, R21B, R24A, R24B, R35A, R35B</t>
-  </si>
-  <si>
-    <t>R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V</t>
-  </si>
-  <si>
-    <t>PANASONIC, PANASONIC, PANASONIC, PANASONIC, PANASONIC, PANASONIC, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, PANASONIC, PANASONIC, PANASONIC, PANASONIC, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, PANASONIC, PANASONIC, PANASONIC, PANASONIC, PANASONIC, PANASONIC</t>
-  </si>
-  <si>
-    <t>ERJ2RKF1000X, ERJ2RKF1000X, ERJ2RKF1000X, ERJ2RKF1000X, ERJ2RKF1000X, ERJ2RKF1000X, 232270671001L, 232270671001L, 232270671001L, 232270671001L, ERJ2RKF1000X, ERJ2RKF1000X, ERJ2RKF1000X, ERJ2RKF1000X, 232270671001L, 232270671001L, 232270671001L, 232270671001L, 232270671001L, 232270671001L, 232270671001L, 232270671001L, ERJ2RKF1000X, ERJ2RKF1000X, ERJ2RKF1000X, ERJ2RKF1000X, ERJ2RKF1000X, ERJ2RKF1000X</t>
-  </si>
-  <si>
-    <t>R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>Resistor - 0.1%</t>
-  </si>
-  <si>
-    <t>R15A, R15B, R15C, R15D</t>
-  </si>
-  <si>
-    <t>RESC1005X35N</t>
-  </si>
-  <si>
-    <t>R0402_10K_0.1%_0.063W_25PPM</t>
-  </si>
-  <si>
-    <t>0.35mm</t>
-  </si>
-  <si>
-    <t>TE CONNECTIVITY</t>
-  </si>
-  <si>
-    <t>CPF0402B10KE1</t>
-  </si>
-  <si>
-    <t>Thin Film Precision Resistor</t>
-  </si>
-  <si>
-    <t>4k7</t>
-  </si>
-  <si>
-    <t>R20A, R20B, R20C, R20D</t>
-  </si>
-  <si>
-    <t>R0402_4K7_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>232270674702L</t>
-  </si>
-  <si>
-    <t>R23, R118</t>
-  </si>
-  <si>
-    <t>R0603_4K7_1%_0.1W_100PPM</t>
-  </si>
-  <si>
-    <t>NRC06F4701TRF</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>R25, R26, R27, R28, R29, R30, R43, R44, R147, R152, R153, R154, R155</t>
-  </si>
-  <si>
-    <t>R0402_470R_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>232270674701L</t>
-  </si>
-  <si>
-    <t>R33, R66, R67, R83, R85, R86, R110, R111, R120, R121, R122, R149</t>
-  </si>
-  <si>
-    <t>R0402_10K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>232270671003L</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>R40A, R40B, R40C, R40D, R41A, R41B, R41C, R41D</t>
-  </si>
-  <si>
-    <t>R0402_200R_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>232270672001L</t>
-  </si>
-  <si>
-    <t>49R9</t>
-  </si>
-  <si>
-    <t>R47, R52, R117, R142, R144, R145, R146</t>
-  </si>
-  <si>
-    <t>R0402_49R9_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>232270674999L or RC0402FR-0749R9L</t>
-  </si>
-  <si>
-    <t>24k</t>
-  </si>
-  <si>
-    <t>R55, R82, R84</t>
-  </si>
-  <si>
-    <t>R0603_24K_1%_0.1W_100PPM</t>
-  </si>
-  <si>
-    <t>NRC06F2402TRF</t>
-  </si>
-  <si>
-    <t>1k5</t>
-  </si>
-  <si>
-    <t>R80, R119, R129</t>
-  </si>
-  <si>
-    <t>R0603_1K5_1%_0.1W_100PPM</t>
-  </si>
-  <si>
-    <t>NRC06F1501TRF</t>
-  </si>
-  <si>
-    <t>1k8</t>
-  </si>
-  <si>
-    <t>R87</t>
-  </si>
-  <si>
-    <t>R0603_1K8_1%_0.1W_100PPM</t>
-  </si>
-  <si>
-    <t>NRC06F1801TRF</t>
-  </si>
-  <si>
     <t>R103, R140A, R140B, R140C, R140D, R141</t>
   </si>
   <si>
@@ -1230,7 +1230,7 @@
     <t>Test Point</t>
   </si>
   <si>
-    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10, TP11, TP12, TP13, TP14, TP15, TP16, TP17, TP18</t>
+    <t>TP0, TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP10, TP11, TP12, TP13, TP14, TP15, TP16, TP17, TP18</t>
   </si>
   <si>
     <t>TPS127</t>
@@ -3471,75 +3471,75 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>281</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>55</v>
+        <v>286</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>55</v>
+        <v>287</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>55</v>
+        <v>288</v>
       </c>
       <c r="J49" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="K49" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="L49" s="3">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L50" s="3">
         <v>75</v>
@@ -3547,37 +3547,37 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I51" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="L51" s="3">
         <v>6</v>
@@ -3585,37 +3585,37 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J52" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="K52" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L52" s="3">
         <v>28</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>308</v>
@@ -3664,13 +3664,13 @@
         <v>316</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>317</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>16</v>
@@ -3679,16 +3679,16 @@
         <v>318</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>319</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>318</v>
@@ -3702,13 +3702,13 @@
         <v>316</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>320</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>16</v>
@@ -3720,13 +3720,13 @@
         <v>18</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>322</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>321</v>
@@ -3740,13 +3740,13 @@
         <v>323</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>324</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>16</v>
@@ -3755,16 +3755,16 @@
         <v>325</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>326</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>325</v>
@@ -3775,151 +3775,151 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="I57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="L57" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G58" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="I58" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="L58" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="J59" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="I59" s="2" t="s">
+      <c r="K59" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="L59" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I60" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K60" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="L60" s="3">
         <v>3</v>
@@ -3927,92 +3927,92 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I61" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K61" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="L61" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>346</v>
+        <v>55</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>347</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>348</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>298</v>
+        <v>55</v>
       </c>
       <c r="I62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>348</v>
       </c>
       <c r="L62" s="3">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>350</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>16</v>
@@ -4024,13 +4024,13 @@
         <v>18</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>352</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>351</v>
@@ -4044,13 +4044,13 @@
         <v>323</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>353</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>16</v>
@@ -4062,13 +4062,13 @@
         <v>18</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>355</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>354</v>
@@ -4082,13 +4082,13 @@
         <v>356</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>357</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>16</v>
@@ -4100,13 +4100,13 @@
         <v>18</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>359</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>358</v>
@@ -4120,13 +4120,13 @@
         <v>360</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>361</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>16</v>
@@ -4138,13 +4138,13 @@
         <v>18</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>363</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>362</v>
@@ -4158,13 +4158,13 @@
         <v>364</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>365</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>16</v>
@@ -4176,13 +4176,13 @@
         <v>18</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>367</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>366</v>
@@ -4196,13 +4196,13 @@
         <v>368</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>369</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>16</v>
@@ -4214,13 +4214,13 @@
         <v>18</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>371</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>370</v>
@@ -4234,13 +4234,13 @@
         <v>372</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>373</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>16</v>
@@ -4252,13 +4252,13 @@
         <v>18</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>375</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>374</v>
@@ -4272,13 +4272,13 @@
         <v>376</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>16</v>
@@ -4290,13 +4290,13 @@
         <v>18</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>379</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>378</v>
@@ -4307,10 +4307,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>380</v>
@@ -4348,13 +4348,13 @@
         <v>55</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>386</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>55</v>
